--- a/sjdj/scraped_data2.xlsx
+++ b/sjdj/scraped_data2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JJG\Start\sjdj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F4098-B741-4598-8FF9-E00AE08D4D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C1203-E3A0-427A-942D-9B385EF40233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="720" windowWidth="19725" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$227</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="236">
   <si>
     <t>Column Name</t>
   </si>
@@ -46,14 +49,683 @@
     <t>hpGrowth2_1</t>
   </si>
   <si>
-    <t>308235</t>
-  </si>
-  <si>
     <t>mission_Weekly_Check</t>
   </si>
   <si>
+    <t>hero_curLevel</t>
+  </si>
+  <si>
+    <t>attendanceCount</t>
+  </si>
+  <si>
+    <t>maxBoostDraw</t>
+  </si>
+  <si>
+    <t>boxLevel</t>
+  </si>
+  <si>
+    <t>goods_SuperStone</t>
+  </si>
+  <si>
+    <t>curResearchNum</t>
+  </si>
+  <si>
+    <t>skillAddBuff</t>
+  </si>
+  <si>
+    <t>growth4CurCheck</t>
+  </si>
+  <si>
+    <t>growth4TotalLevel</t>
+  </si>
+  <si>
+    <t>skillCoolTime</t>
+  </si>
+  <si>
+    <t>skillsLevel</t>
+  </si>
+  <si>
+    <t>dungeon3MaxStage</t>
+  </si>
+  <si>
+    <t>goods_Mileage</t>
+  </si>
+  <si>
+    <t>monsterKill</t>
+  </si>
+  <si>
+    <t>goods_UpStone</t>
+  </si>
+  <si>
+    <t>curVersion</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ment1_22</t>
+  </si>
+  <si>
+    <t>research_Accel</t>
+  </si>
+  <si>
+    <t>hpGrowth3_2</t>
+  </si>
+  <si>
+    <t>hpGrowth3_1</t>
+  </si>
+  <si>
+    <t>isGetMileageOldUser</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>boxCurCount</t>
+  </si>
+  <si>
+    <t>growth2DiscountPrice</t>
+  </si>
+  <si>
+    <t>ment1_23</t>
+  </si>
+  <si>
+    <t>growth4DiscountPrice</t>
+  </si>
+  <si>
+    <t>growth5IndivisualCount</t>
+  </si>
+  <si>
+    <t>upgradeCount1</t>
+  </si>
+  <si>
+    <t>dungeon_Ticket</t>
+  </si>
+  <si>
+    <t>researchCount</t>
+  </si>
+  <si>
+    <t>upgradeCount2</t>
+  </si>
+  <si>
+    <t>curServer</t>
+  </si>
+  <si>
+    <t>curUpdateValue</t>
+  </si>
+  <si>
+    <t>isResearched</t>
+  </si>
+  <si>
+    <t>growth1MaxCount</t>
+  </si>
+  <si>
+    <t>drawBaseSeed</t>
+  </si>
+  <si>
+    <t>nomalAddDamage</t>
+  </si>
+  <si>
+    <t>shop1Free</t>
+  </si>
+  <si>
+    <t>hpCharacterUp</t>
+  </si>
+  <si>
+    <t>offenseCharacterUp</t>
+  </si>
+  <si>
+    <t>hp2EquipmentHave</t>
+  </si>
+  <si>
+    <t>event5_Receive</t>
+  </si>
+  <si>
+    <t>dungeonClearSwitch</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>hpHero2</t>
+  </si>
+  <si>
+    <t>growth1DiscountPrice</t>
+  </si>
+  <si>
+    <t>shop3FreePassGetCount</t>
+  </si>
+  <si>
+    <t>skillCoolTimeDown</t>
+  </si>
+  <si>
+    <t>stageClearSwitch</t>
+  </si>
+  <si>
+    <t>dungeon1MaxStage</t>
+  </si>
+  <si>
+    <t>hero_Place_Equip</t>
+  </si>
+  <si>
+    <t>nomalExpert</t>
+  </si>
+  <si>
+    <t>growth2CurCount</t>
+  </si>
+  <si>
+    <t>lockOnQuestSwitch</t>
+  </si>
+  <si>
+    <t>skillDamage</t>
+  </si>
+  <si>
+    <t>monsterHpDown</t>
+  </si>
+  <si>
+    <t>equipment2</t>
+  </si>
+  <si>
+    <t>equipment1</t>
+  </si>
+  <si>
+    <t>dungeonPowerUp</t>
+  </si>
+  <si>
+    <t>hpHero3</t>
+  </si>
+  <si>
+    <t>boxAllCount</t>
+  </si>
+  <si>
+    <t>hpHero4</t>
+  </si>
+  <si>
+    <t>offense2EquipmentHave</t>
+  </si>
+  <si>
+    <t>drawHero</t>
+  </si>
+  <si>
+    <t>mission_Real_Receive</t>
+  </si>
+  <si>
+    <t>oriResearchingTime</t>
+  </si>
+  <si>
+    <t>bossOffenseDown</t>
+  </si>
+  <si>
+    <t>goods_FairySuperStone</t>
+  </si>
+  <si>
+    <t>dungeonBaseSeed</t>
+  </si>
+  <si>
+    <t>finalDamage</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>event6_Receive</t>
+  </si>
+  <si>
+    <t>goods_LabStone</t>
+  </si>
+  <si>
+    <t>critical1_Damage</t>
+  </si>
+  <si>
+    <t>shop5Goods</t>
+  </si>
+  <si>
+    <t>critical1_DamageRate</t>
+  </si>
+  <si>
+    <t>goods_Gold</t>
+  </si>
+  <si>
+    <t>drawEquipment</t>
+  </si>
+  <si>
+    <t>growth2Price</t>
+  </si>
+  <si>
+    <t>hpTreasure1</t>
+  </si>
+  <si>
+    <t>getRateUp</t>
+  </si>
+  <si>
+    <t>hpTreasure3</t>
+  </si>
+  <si>
+    <t>hpTreasure2</t>
+  </si>
+  <si>
+    <t>monsterBossDamage</t>
+  </si>
+  <si>
+    <t>event3_Receive</t>
+  </si>
+  <si>
+    <t>offenseGrowth5_2</t>
+  </si>
+  <si>
+    <t>offenseTreasureMix2</t>
+  </si>
+  <si>
+    <t>offenseTreasureMix3</t>
+  </si>
+  <si>
+    <t>offenseTreasureMix1</t>
+  </si>
+  <si>
+    <t>purchaseMonthlyPackage2</t>
+  </si>
+  <si>
+    <t>purchaseMonthlyPackage1</t>
+  </si>
+  <si>
+    <t>isResearching</t>
+  </si>
+  <si>
+    <t>treasureSetLevel</t>
+  </si>
+  <si>
+    <t>offenseGrowth5_1</t>
+  </si>
+  <si>
+    <t>equipmentUpgradeMaxCount</t>
+  </si>
+  <si>
+    <t>mission_Daily_Check</t>
+  </si>
+  <si>
+    <t>ment2_23</t>
+  </si>
+  <si>
+    <t>ment2_22</t>
+  </si>
+  <si>
+    <t>skillExpert</t>
+  </si>
+  <si>
+    <t>growth1Price</t>
+  </si>
+  <si>
+    <t>nansaeng2</t>
+  </si>
+  <si>
+    <t>hpEquipmentEquip</t>
+  </si>
+  <si>
+    <t>drawRealCount</t>
+  </si>
+  <si>
+    <t>nansaeng1</t>
+  </si>
+  <si>
+    <t>hp1EquipmentHave</t>
+  </si>
+  <si>
+    <t>hpResearch1</t>
+  </si>
+  <si>
+    <t>hpResearch2</t>
+  </si>
+  <si>
+    <t>dungeon1CurMaxOccupy</t>
+  </si>
+  <si>
+    <t>event4_Receive</t>
+  </si>
+  <si>
+    <t>freeCurCount</t>
+  </si>
+  <si>
+    <t>skillAddDamage</t>
+  </si>
+  <si>
+    <t>nansaeng_1</t>
+  </si>
+  <si>
+    <t>nansaeng_2</t>
+  </si>
+  <si>
+    <t>logoutTime</t>
+  </si>
+  <si>
+    <t>isEquipNum1</t>
+  </si>
+  <si>
+    <t>purchaseWeeklyPackage2</t>
+  </si>
+  <si>
+    <t>growth4Price</t>
+  </si>
+  <si>
+    <t>isEquipNum2</t>
+  </si>
+  <si>
+    <t>purchaseWeeklyPackage1</t>
+  </si>
+  <si>
+    <t>offenseGrowth4_1</t>
+  </si>
+  <si>
+    <t>playerAttackSpeed</t>
+  </si>
+  <si>
+    <t>offenseGrowth4_2</t>
+  </si>
+  <si>
+    <t>growth2MaxCount</t>
+  </si>
+  <si>
+    <t>dungeon5MaxDamage</t>
+  </si>
+  <si>
+    <t>hero_reward_Check</t>
+  </si>
+  <si>
+    <t>growth5EvolutionPrice</t>
+  </si>
+  <si>
+    <t>bossHpDown</t>
+  </si>
+  <si>
+    <t>hero_Place_Num</t>
+  </si>
+  <si>
+    <t>isFirstAds</t>
+  </si>
+  <si>
+    <t>isOnAds</t>
+  </si>
+  <si>
+    <t>awakeCount2</t>
+  </si>
+  <si>
+    <t>awakeDamage</t>
+  </si>
+  <si>
+    <t>awakeCount1</t>
+  </si>
+  <si>
+    <t>mission_Ads_Receive</t>
+  </si>
+  <si>
+    <t>goods_Diamond</t>
+  </si>
+  <si>
+    <t>goods_AbilityStone</t>
+  </si>
+  <si>
+    <t>event9_Receive</t>
+  </si>
+  <si>
+    <t>todayBoostDraw</t>
+  </si>
+  <si>
+    <t>purchaseTimeCharge</t>
+  </si>
+  <si>
+    <t>stageRewardSwitch</t>
+  </si>
+  <si>
+    <t>summon_Ticket</t>
+  </si>
+  <si>
+    <t>growth5IndivisualPrice</t>
+  </si>
+  <si>
+    <t>offenseEquipmentEquip</t>
+  </si>
+  <si>
+    <t>event1_Receive</t>
+  </si>
+  <si>
+    <t>offenseGrowth3_1</t>
+  </si>
+  <si>
+    <t>offenseGrowth3_2</t>
+  </si>
+  <si>
+    <t>isUsedSecretCoupon</t>
+  </si>
+  <si>
+    <t>cashCount</t>
+  </si>
+  <si>
+    <t>curStore</t>
+  </si>
+  <si>
+    <t>dailyMail3</t>
+  </si>
+  <si>
+    <t>upEquipment</t>
+  </si>
+  <si>
+    <t>rankExtraData</t>
+  </si>
+  <si>
+    <t>dungeon3StoneMaxGet</t>
+  </si>
+  <si>
+    <t>growth5EvolutionDiscountPrice</t>
+  </si>
+  <si>
+    <t>monsterNomalDamage</t>
+  </si>
+  <si>
+    <t>growth5EvolutionCount</t>
+  </si>
+  <si>
+    <t>dailyMail1</t>
+  </si>
+  <si>
+    <t>dailyMail2</t>
+  </si>
+  <si>
+    <t>dungeon2MaxStage</t>
+  </si>
+  <si>
+    <t>isStartPurchaseTimeCharge</t>
+  </si>
+  <si>
+    <t>mission_Weekly_Receive</t>
+  </si>
+  <si>
+    <t>goods_RuneStone</t>
+  </si>
+  <si>
+    <t>isEndPurchaseTimeCharge</t>
+  </si>
+  <si>
+    <t>heroCombineData</t>
+  </si>
+  <si>
+    <t>adsCurCount</t>
+  </si>
+  <si>
+    <t>hpEssence2</t>
+  </si>
+  <si>
+    <t>hero_Piece</t>
+  </si>
+  <si>
+    <t>hpEssence1</t>
+  </si>
+  <si>
+    <t>hpGrowth4_2</t>
+  </si>
+  <si>
+    <t>hpGrowth4_1</t>
+  </si>
+  <si>
+    <t>mission_Daily_Receive</t>
+  </si>
+  <si>
+    <t>researchSpeedUp</t>
+  </si>
+  <si>
+    <t>onAdsTime</t>
+  </si>
+  <si>
+    <t>event2_Receive</t>
+  </si>
+  <si>
+    <t>dungeonSweepCount</t>
+  </si>
+  <si>
+    <t>purchasedNoAds</t>
+  </si>
+  <si>
+    <t>growth2RewardCheck</t>
+  </si>
+  <si>
+    <t>offenseGrowth2_1</t>
+  </si>
+  <si>
+    <t>awakeDamage2</t>
+  </si>
+  <si>
+    <t>dungeon4AttackSpeed</t>
+  </si>
+  <si>
+    <t>growth4Level</t>
+  </si>
+  <si>
+    <t>curResearchingTime</t>
+  </si>
+  <si>
+    <t>shop3PayPassGetCount</t>
+  </si>
+  <si>
+    <t>offense1EquipmentHave</t>
+  </si>
+  <si>
+    <t>critical2_DamageRate</t>
+  </si>
+  <si>
+    <t>isGet2</t>
+  </si>
+  <si>
+    <t>isGet1</t>
+  </si>
+  <si>
+    <t>offenseEssence1</t>
+  </si>
+  <si>
+    <t>offenseEssence2</t>
+  </si>
+  <si>
+    <t>purchaseStagePackage</t>
+  </si>
+  <si>
+    <t>guideQuestSwitch</t>
+  </si>
+  <si>
+    <t>critical2_Damage</t>
+  </si>
+  <si>
+    <t>event7_Receive</t>
+  </si>
+  <si>
+    <t>goods_GradeStone</t>
+  </si>
+  <si>
+    <t>hpGrowth5_1</t>
+  </si>
+  <si>
+    <t>stageLockOnSwitch</t>
+  </si>
+  <si>
+    <t>offenseTreasure1</t>
+  </si>
+  <si>
+    <t>characterIcon</t>
+  </si>
+  <si>
+    <t>offenseTreasure3</t>
+  </si>
+  <si>
+    <t>hpGrowth5_2</t>
+  </si>
+  <si>
+    <t>offenseTreasure2</t>
+  </si>
+  <si>
+    <t>goods_FairyUpStone</t>
+  </si>
+  <si>
+    <t>skillRange</t>
+  </si>
+  <si>
+    <t>growth1CurCount</t>
+  </si>
+  <si>
+    <t>shop3PayPassPurchased</t>
+  </si>
+  <si>
+    <t>skillGetCheck</t>
+  </si>
+  <si>
+    <t>hpTreasureMix2</t>
+  </si>
+  <si>
+    <t>hpTreasureMix3</t>
+  </si>
+  <si>
+    <t>hpTreasureMix1</t>
+  </si>
+  <si>
+    <t>welcomMail</t>
+  </si>
+  <si>
+    <t>purchaseDailyPackage2</t>
+  </si>
+  <si>
+    <t>purchaseDailyPackage1</t>
+  </si>
+  <si>
+    <t>boxGetReward</t>
+  </si>
+  <si>
+    <t>offenseHero4</t>
+  </si>
+  <si>
+    <t>mixEquipment</t>
+  </si>
+  <si>
+    <t>offenseHero3</t>
+  </si>
+  <si>
+    <t>offenseResearch1</t>
+  </si>
+  <si>
+    <t>offenseResearch2</t>
+  </si>
+  <si>
+    <t>growth2EvolutionCount</t>
+  </si>
+  <si>
+    <t>shop2Free</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>offenseHero2</t>
+  </si>
+  <si>
+    <t>arriveTime</t>
+  </si>
+  <si>
     <t>[
-    0,
+    1110,
     0,
     0,
     0,
@@ -65,933 +737,15 @@
     3,
     0
 ]</t>
-  </si>
-  <si>
-    <t>hero_curLevel</t>
-  </si>
-  <si>
-    <t>attendanceCount</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>maxBoostDraw</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>boxLevel</t>
-  </si>
-  <si>
-    <t>goods_SuperStone</t>
-  </si>
-  <si>
-    <t>235959</t>
-  </si>
-  <si>
-    <t>curResearchNum</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>skillAddBuff</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>growth4CurCheck</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>growth4TotalLevel</t>
-  </si>
-  <si>
-    <t>1724</t>
-  </si>
-  <si>
-    <t>skillCoolTime</t>
-  </si>
-  <si>
-    <t>skillsLevel</t>
-  </si>
-  <si>
-    <t>dungeon3MaxStage</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>goods_Mileage</t>
-  </si>
-  <si>
-    <t>28750</t>
-  </si>
-  <si>
-    <t>monsterKill</t>
-  </si>
-  <si>
-    <t>10902680</t>
-  </si>
-  <si>
-    <t>goods_UpStone</t>
-  </si>
-  <si>
-    <t>45704320</t>
-  </si>
-  <si>
-    <t>curVersion</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
-    <t>ment1_22</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>research_Accel</t>
-  </si>
-  <si>
-    <t>hpGrowth3_2</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>hpGrowth3_1</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>isGetMileageOldUser</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>boxCurCount</t>
-  </si>
-  <si>
-    <t>growth2DiscountPrice</t>
-  </si>
-  <si>
-    <t>ment1_23</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>growth4DiscountPrice</t>
-  </si>
-  <si>
-    <t>growth5IndivisualCount</t>
-  </si>
-  <si>
-    <t>upgradeCount1</t>
-  </si>
-  <si>
-    <t>dungeon_Ticket</t>
-  </si>
-  <si>
-    <t>researchCount</t>
-  </si>
-  <si>
-    <t>upgradeCount2</t>
-  </si>
-  <si>
-    <t>curServer</t>
-  </si>
-  <si>
-    <t>curUpdateValue</t>
-  </si>
-  <si>
-    <t>isResearched</t>
-  </si>
-  <si>
-    <t>growth1MaxCount</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>drawBaseSeed</t>
-  </si>
-  <si>
-    <t>nomalAddDamage</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>shop1Free</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>hpCharacterUp</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>offenseCharacterUp</t>
-  </si>
-  <si>
-    <t>hp2EquipmentHave</t>
-  </si>
-  <si>
-    <t>386295</t>
-  </si>
-  <si>
-    <t>event5_Receive</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>dungeonClearSwitch</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>29698</t>
-  </si>
-  <si>
-    <t>hpHero2</t>
-  </si>
-  <si>
-    <t>27100</t>
-  </si>
-  <si>
-    <t>growth1DiscountPrice</t>
-  </si>
-  <si>
-    <t>4332756301</t>
-  </si>
-  <si>
-    <t>shop3FreePassGetCount</t>
-  </si>
-  <si>
-    <t>skillCoolTimeDown</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>stageClearSwitch</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>dungeon1MaxStage</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>hero_Place_Equip</t>
-  </si>
-  <si>
-    <t>nomalExpert</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>growth2CurCount</t>
-  </si>
-  <si>
-    <t>1693</t>
-  </si>
-  <si>
-    <t>lockOnQuestSwitch</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>skillDamage</t>
-  </si>
-  <si>
-    <t>monsterHpDown</t>
-  </si>
-  <si>
-    <t>equipment2</t>
-  </si>
-  <si>
-    <t>equipment1</t>
-  </si>
-  <si>
-    <t>dungeonPowerUp</t>
-  </si>
-  <si>
-    <t>hpHero3</t>
-  </si>
-  <si>
-    <t>24080</t>
-  </si>
-  <si>
-    <t>boxAllCount</t>
-  </si>
-  <si>
-    <t>hpHero4</t>
-  </si>
-  <si>
-    <t>offense2EquipmentHave</t>
-  </si>
-  <si>
-    <t>509395</t>
-  </si>
-  <si>
-    <t>drawHero</t>
-  </si>
-  <si>
-    <t>158660</t>
-  </si>
-  <si>
-    <t>mission_Real_Receive</t>
-  </si>
-  <si>
-    <t>oriResearchingTime</t>
-  </si>
-  <si>
-    <t>1d 17:52:51</t>
-  </si>
-  <si>
-    <t>bossOffenseDown</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>goods_FairySuperStone</t>
-  </si>
-  <si>
-    <t>dungeonBaseSeed</t>
-  </si>
-  <si>
-    <t>finalDamage</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>event6_Receive</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>goods_LabStone</t>
-  </si>
-  <si>
-    <t>5961480</t>
-  </si>
-  <si>
-    <t>critical1_Damage</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>shop5Goods</t>
-  </si>
-  <si>
-    <t>critical1_DamageRate</t>
-  </si>
-  <si>
-    <t>goods_Gold</t>
-  </si>
-  <si>
-    <t>22034935122769</t>
-  </si>
-  <si>
-    <t>drawEquipment</t>
-  </si>
-  <si>
-    <t>393810</t>
-  </si>
-  <si>
-    <t>growth2Price</t>
-  </si>
-  <si>
-    <t>3035549</t>
-  </si>
-  <si>
-    <t>hpTreasure1</t>
-  </si>
-  <si>
-    <t>getRateUp</t>
-  </si>
-  <si>
-    <t>hpTreasure3</t>
-  </si>
-  <si>
-    <t>hpTreasure2</t>
-  </si>
-  <si>
-    <t>monsterBossDamage</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>event3_Receive</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>offenseGrowth5_2</t>
-  </si>
-  <si>
-    <t>offenseTreasureMix2</t>
-  </si>
-  <si>
-    <t>offenseTreasureMix3</t>
-  </si>
-  <si>
-    <t>offenseTreasureMix1</t>
-  </si>
-  <si>
-    <t>purchaseMonthlyPackage2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>purchaseMonthlyPackage1</t>
-  </si>
-  <si>
-    <t>isResearching</t>
-  </si>
-  <si>
-    <t>treasureSetLevel</t>
-  </si>
-  <si>
-    <t>offenseGrowth5_1</t>
-  </si>
-  <si>
-    <t>equipmentUpgradeMaxCount</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>mission_Daily_Check</t>
-  </si>
-  <si>
-    <t>ment2_23</t>
-  </si>
-  <si>
-    <t>ment2_22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>skillExpert</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>growth1Price</t>
-  </si>
-  <si>
-    <t>10831890560</t>
-  </si>
-  <si>
-    <t>nansaeng2</t>
-  </si>
-  <si>
-    <t>hpEquipmentEquip</t>
-  </si>
-  <si>
-    <t>1455000</t>
-  </si>
-  <si>
-    <t>drawRealCount</t>
-  </si>
-  <si>
-    <t>nansaeng1</t>
-  </si>
-  <si>
-    <t>hp1EquipmentHave</t>
-  </si>
-  <si>
-    <t>hpResearch1</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>hpResearch2</t>
-  </si>
-  <si>
-    <t>dungeon1CurMaxOccupy</t>
-  </si>
-  <si>
-    <t>event4_Receive</t>
-  </si>
-  <si>
-    <t>freeCurCount</t>
-  </si>
-  <si>
-    <t>skillAddDamage</t>
-  </si>
-  <si>
-    <t>nansaeng_1</t>
-  </si>
-  <si>
-    <t>nansaeng_2</t>
-  </si>
-  <si>
-    <t>logoutTime</t>
-  </si>
-  <si>
-    <t>2025-02-18 17:27:51</t>
-  </si>
-  <si>
-    <t>isEquipNum1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>purchaseWeeklyPackage2</t>
-  </si>
-  <si>
-    <t>growth4Price</t>
-  </si>
-  <si>
-    <t>3144576</t>
-  </si>
-  <si>
-    <t>isEquipNum2</t>
-  </si>
-  <si>
-    <t>purchaseWeeklyPackage1</t>
-  </si>
-  <si>
-    <t>offenseGrowth4_1</t>
-  </si>
-  <si>
-    <t>33942</t>
-  </si>
-  <si>
-    <t>playerAttackSpeed</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>offenseGrowth4_2</t>
-  </si>
-  <si>
-    <t>31713</t>
-  </si>
-  <si>
-    <t>growth2MaxCount</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>dungeon5MaxDamage</t>
-  </si>
-  <si>
-    <t>293257278961101854323327840835850</t>
-  </si>
-  <si>
-    <t>hero_reward_Check</t>
-  </si>
-  <si>
-    <t>growth5EvolutionPrice</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>bossHpDown</t>
-  </si>
-  <si>
-    <t>hero_Place_Num</t>
-  </si>
-  <si>
-    <t>isFirstAds</t>
-  </si>
-  <si>
-    <t>isOnAds</t>
-  </si>
-  <si>
-    <t>awakeCount2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>awakeDamage</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>awakeCount1</t>
-  </si>
-  <si>
-    <t>mission_Ads_Receive</t>
-  </si>
-  <si>
-    <t>goods_Diamond</t>
-  </si>
-  <si>
-    <t>634898</t>
-  </si>
-  <si>
-    <t>goods_AbilityStone</t>
-  </si>
-  <si>
-    <t>65742</t>
-  </si>
-  <si>
-    <t>event9_Receive</t>
-  </si>
-  <si>
-    <t>todayBoostDraw</t>
-  </si>
-  <si>
-    <t>purchaseTimeCharge</t>
-  </si>
-  <si>
-    <t>stageRewardSwitch</t>
-  </si>
-  <si>
-    <t>summon_Ticket</t>
-  </si>
-  <si>
-    <t>growth5IndivisualPrice</t>
-  </si>
-  <si>
-    <t>offenseEquipmentEquip</t>
-  </si>
-  <si>
-    <t>1701000</t>
-  </si>
-  <si>
-    <t>event1_Receive</t>
-  </si>
-  <si>
-    <t>offenseGrowth3_1</t>
-  </si>
-  <si>
-    <t>offenseGrowth3_2</t>
-  </si>
-  <si>
-    <t>isUsedSecretCoupon</t>
-  </si>
-  <si>
-    <t>cashCount</t>
-  </si>
-  <si>
-    <t>19832500</t>
-  </si>
-  <si>
-    <t>curStore</t>
-  </si>
-  <si>
-    <t>dailyMail3</t>
-  </si>
-  <si>
-    <t>upEquipment</t>
-  </si>
-  <si>
-    <t>15004</t>
-  </si>
-  <si>
-    <t>rankExtraData</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>dungeon3StoneMaxGet</t>
-  </si>
-  <si>
-    <t>1095000</t>
-  </si>
-  <si>
-    <t>growth5EvolutionDiscountPrice</t>
-  </si>
-  <si>
-    <t>monsterNomalDamage</t>
-  </si>
-  <si>
-    <t>growth5EvolutionCount</t>
-  </si>
-  <si>
-    <t>dailyMail1</t>
-  </si>
-  <si>
-    <t>dailyMail2</t>
-  </si>
-  <si>
-    <t>dungeon2MaxStage</t>
-  </si>
-  <si>
-    <t>isStartPurchaseTimeCharge</t>
-  </si>
-  <si>
-    <t>mission_Weekly_Receive</t>
-  </si>
-  <si>
-    <t>goods_RuneStone</t>
-  </si>
-  <si>
-    <t>279770</t>
-  </si>
-  <si>
-    <t>isEndPurchaseTimeCharge</t>
-  </si>
-  <si>
-    <t>heroCombineData</t>
-  </si>
-  <si>
-    <t>adsCurCount</t>
-  </si>
-  <si>
-    <t>hpEssence2</t>
-  </si>
-  <si>
-    <t>5025205</t>
-  </si>
-  <si>
-    <t>hero_Piece</t>
-  </si>
-  <si>
-    <t>hpEssence1</t>
-  </si>
-  <si>
-    <t>5075205</t>
-  </si>
-  <si>
-    <t>hpGrowth4_2</t>
-  </si>
-  <si>
-    <t>hpGrowth4_1</t>
-  </si>
-  <si>
-    <t>mission_Daily_Receive</t>
-  </si>
-  <si>
-    <t>researchSpeedUp</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>onAdsTime</t>
-  </si>
-  <si>
-    <t>event2_Receive</t>
-  </si>
-  <si>
-    <t>dungeonSweepCount</t>
-  </si>
-  <si>
-    <t>purchasedNoAds</t>
-  </si>
-  <si>
-    <t>growth2RewardCheck</t>
-  </si>
-  <si>
-    <t>offenseGrowth2_1</t>
-  </si>
-  <si>
-    <t>awakeDamage2</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>dungeon4AttackSpeed</t>
-  </si>
-  <si>
-    <t>growth4Level</t>
-  </si>
-  <si>
-    <t>curResearchingTime</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>shop3PayPassGetCount</t>
-  </si>
-  <si>
-    <t>offense1EquipmentHave</t>
-  </si>
-  <si>
-    <t>critical2_DamageRate</t>
-  </si>
-  <si>
-    <t>isGet2</t>
-  </si>
-  <si>
-    <t>isGet1</t>
-  </si>
-  <si>
-    <t>offenseEssence1</t>
-  </si>
-  <si>
-    <t>offenseEssence2</t>
-  </si>
-  <si>
-    <t>purchaseStagePackage</t>
-  </si>
-  <si>
-    <t>guideQuestSwitch</t>
-  </si>
-  <si>
-    <t>2444</t>
-  </si>
-  <si>
-    <t>critical2_Damage</t>
-  </si>
-  <si>
-    <t>event7_Receive</t>
-  </si>
-  <si>
-    <t>goods_GradeStone</t>
-  </si>
-  <si>
-    <t>hpGrowth5_1</t>
-  </si>
-  <si>
-    <t>stageLockOnSwitch</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>offenseTreasure1</t>
-  </si>
-  <si>
-    <t>characterIcon</t>
-  </si>
-  <si>
-    <t>offenseTreasure3</t>
-  </si>
-  <si>
-    <t>hpGrowth5_2</t>
-  </si>
-  <si>
-    <t>offenseTreasure2</t>
-  </si>
-  <si>
-    <t>goods_FairyUpStone</t>
-  </si>
-  <si>
-    <t>76260</t>
-  </si>
-  <si>
-    <t>skillRange</t>
-  </si>
-  <si>
-    <t>growth1CurCount</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>shop3PayPassPurchased</t>
-  </si>
-  <si>
-    <t>skillGetCheck</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>hpTreasureMix2</t>
-  </si>
-  <si>
-    <t>hpTreasureMix3</t>
-  </si>
-  <si>
-    <t>hpTreasureMix1</t>
-  </si>
-  <si>
-    <t>welcomMail</t>
-  </si>
-  <si>
-    <t>purchaseDailyPackage2</t>
-  </si>
-  <si>
-    <t>purchaseDailyPackage1</t>
-  </si>
-  <si>
-    <t>boxGetReward</t>
-  </si>
-  <si>
-    <t>offenseHero4</t>
-  </si>
-  <si>
-    <t>mixEquipment</t>
-  </si>
-  <si>
-    <t>99943</t>
-  </si>
-  <si>
-    <t>offenseHero3</t>
-  </si>
-  <si>
-    <t>offenseResearch1</t>
-  </si>
-  <si>
-    <t>offenseResearch2</t>
-  </si>
-  <si>
-    <t>growth2EvolutionCount</t>
-  </si>
-  <si>
-    <t>shop2Free</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>2236</t>
-  </si>
-  <si>
-    <t>offenseHero2</t>
-  </si>
-  <si>
-    <t>27080</t>
-  </si>
-  <si>
-    <t>arriveTime</t>
-  </si>
-  <si>
-    <t>2024-12-26 00:38:17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7.0222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,10 +810,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,7 +1123,7 @@
   <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1393,15 +1150,18 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>60124124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1412,2463 +1172,2464 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>308235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>910417</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
+      <c r="C10">
+        <v>910417</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
+      <c r="C11">
+        <v>910417</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
+      <c r="C12">
+        <v>910417</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="C13">
+        <v>910417</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="C16" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
+      <c r="C17">
+        <v>910417</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="C18">
+        <v>910417</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
+      <c r="C19">
+        <v>910417</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
+      <c r="C20">
+        <v>910417</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
+      <c r="C23" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
+      <c r="C24">
+        <v>910417</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
+      <c r="C25">
+        <v>910417</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
+      <c r="C27" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
+      <c r="C28">
+        <v>910417</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
-        <v>53</v>
+      <c r="C29">
+        <v>910417</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="C35" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>22</v>
+      <c r="C36">
+        <v>910417</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
-        <v>22</v>
+      <c r="C37">
+        <v>910417</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
+      <c r="C40" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>67</v>
+      <c r="C41">
+        <v>910417</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>71</v>
+      <c r="C43">
+        <v>910417</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
-        <v>71</v>
+      <c r="C44">
+        <v>910417</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
-        <v>74</v>
+      <c r="C45">
+        <v>910417</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
+      <c r="C47" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
+      <c r="C48">
+        <v>910417</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
-        <v>81</v>
+      <c r="C49">
+        <v>910417</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
+      <c r="C51" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>86</v>
+      <c r="C52">
+        <v>910417</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
-        <v>88</v>
+      <c r="C53">
+        <v>910417</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
+      <c r="C55" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
-        <v>93</v>
+      <c r="C56">
+        <v>910417</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
-        <v>95</v>
+      <c r="C57">
+        <v>910417</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
-        <v>10</v>
+      <c r="C59" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
-        <v>10</v>
+      <c r="C63" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
+      <c r="C65" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>67</v>
+      <c r="C66">
+        <v>910417</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
+      <c r="C67">
+        <v>910417</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
+      <c r="C69" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>115</v>
+      <c r="C71">
+        <v>910417</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
+      <c r="C73" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
+      <c r="C75" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>121</v>
+      <c r="C76">
+        <v>910417</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
-        <v>123</v>
+      <c r="C77">
+        <v>910417</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
+      <c r="C79" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" t="s">
-        <v>93</v>
+      <c r="C80">
+        <v>910417</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
-        <v>129</v>
+      <c r="C81">
+        <v>910417</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
-        <v>131</v>
+      <c r="C82">
+        <v>910417</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
-        <v>133</v>
+      <c r="C83">
+        <v>910417</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
-        <v>10</v>
+      <c r="C85" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
-        <v>67</v>
+      <c r="C86">
+        <v>910417</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" t="s">
-        <v>67</v>
+      <c r="C87">
+        <v>910417</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88" t="s">
-        <v>139</v>
+      <c r="C88">
+        <v>910417</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" t="s">
-        <v>141</v>
+      <c r="C89">
+        <v>910417</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
-      <c r="C90" t="s">
-        <v>67</v>
+      <c r="C90">
+        <v>910417</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="C91" t="s">
-        <v>67</v>
+      <c r="C91">
+        <v>910417</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
-      <c r="C92" t="s">
-        <v>67</v>
+      <c r="C92">
+        <v>910417</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
-      <c r="C93" t="s">
-        <v>67</v>
+      <c r="C93">
+        <v>910417</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94" t="s">
-        <v>147</v>
+      <c r="C94">
+        <v>910417</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
-      <c r="C95" t="s">
-        <v>147</v>
+      <c r="C95">
+        <v>910417</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" t="s">
-        <v>10</v>
+      <c r="C97" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
-      <c r="C98" t="s">
-        <v>139</v>
+      <c r="C98">
+        <v>910417</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
-      <c r="C99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
-        <v>10</v>
+      <c r="C100" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
-        <v>121</v>
+      <c r="C101">
+        <v>910417</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
-      <c r="C102" t="s">
-        <v>157</v>
+      <c r="C102">
+        <v>910417</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
-      <c r="C103" t="s">
-        <v>159</v>
+      <c r="C103">
+        <v>910417</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104" t="s">
-        <v>161</v>
+      <c r="C104">
+        <v>910417</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C105" t="s">
-        <v>147</v>
+      <c r="C105">
+        <v>910417</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
-      <c r="C107" t="s">
-        <v>10</v>
+      <c r="C107" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
-        <v>147</v>
+      <c r="C108">
+        <v>910417</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
-        <v>74</v>
+      <c r="C109">
+        <v>910417</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
-        <v>169</v>
+      <c r="C110">
+        <v>910417</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
-        <v>67</v>
+      <c r="C111">
+        <v>910417</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
-      <c r="C112" t="s">
-        <v>22</v>
+      <c r="C112">
+        <v>910417</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
-      <c r="C113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="C114" t="s">
-        <v>10</v>
+      <c r="C114" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115" t="s">
-        <v>22</v>
+      <c r="C115">
+        <v>910417</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C116" t="s">
-        <v>22</v>
+      <c r="C116">
+        <v>910417</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
-      <c r="C117" t="s">
-        <v>22</v>
+      <c r="C117">
+        <v>910417</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
-      <c r="C119" t="s">
-        <v>180</v>
+      <c r="C119">
+        <v>910417</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
-      <c r="C120" t="s">
-        <v>24</v>
+      <c r="C120">
+        <v>910417</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" t="s">
-        <v>183</v>
+      <c r="C121">
+        <v>910417</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122" t="s">
-        <v>180</v>
+      <c r="C122">
+        <v>910417</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-      <c r="C123" t="s">
-        <v>24</v>
+      <c r="C123">
+        <v>910417</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124" t="s">
-        <v>187</v>
+      <c r="C124">
+        <v>910417</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
-        <v>189</v>
+      <c r="C125">
+        <v>910417</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
-      <c r="C126" t="s">
-        <v>191</v>
+      <c r="C126">
+        <v>910417</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
       </c>
-      <c r="C127" t="s">
-        <v>193</v>
+      <c r="C127">
+        <v>910417</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
-      <c r="C129" t="s">
-        <v>10</v>
+      <c r="C129" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
-      <c r="C130" t="s">
-        <v>198</v>
+      <c r="C130">
+        <v>910417</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
       </c>
-      <c r="C131" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
-      <c r="C132" t="s">
-        <v>10</v>
+      <c r="C132" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
-      <c r="C134" t="s">
-        <v>10</v>
+      <c r="C134" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
       </c>
-      <c r="C135" t="s">
-        <v>204</v>
+      <c r="C135">
+        <v>910417</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136" t="s">
-        <v>206</v>
+      <c r="C136">
+        <v>910417</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
       </c>
-      <c r="C137" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="C138" t="s">
-        <v>10</v>
+      <c r="C138" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
       </c>
-      <c r="C139" t="s">
-        <v>210</v>
+      <c r="C139">
+        <v>910417</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140" t="s">
-        <v>212</v>
+      <c r="C140">
+        <v>910417</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
       </c>
-      <c r="C141" t="s">
-        <v>147</v>
+      <c r="C141">
+        <v>910417</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
-      <c r="C143" t="s">
-        <v>10</v>
+      <c r="C143" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
       </c>
-      <c r="C144" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
-      <c r="C145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
-      <c r="C146" t="s">
-        <v>10</v>
+      <c r="C146" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
       </c>
-      <c r="C147" t="s">
-        <v>220</v>
+      <c r="C147">
+        <v>910417</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
       </c>
-      <c r="C148" t="s">
-        <v>86</v>
+      <c r="C148">
+        <v>910417</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
       </c>
-      <c r="C149" t="s">
-        <v>67</v>
+      <c r="C149">
+        <v>910417</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C151" t="s">
-        <v>10</v>
+      <c r="C151" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
       </c>
-      <c r="C152" t="s">
-        <v>226</v>
+      <c r="C152">
+        <v>910417</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
       </c>
-      <c r="C153" t="s">
-        <v>22</v>
+      <c r="C153">
+        <v>910417</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
       </c>
-      <c r="C155" t="s">
-        <v>230</v>
+      <c r="C155">
+        <v>910417</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157" t="s">
-        <v>234</v>
+      <c r="C157">
+        <v>910417</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158" t="s">
-        <v>198</v>
+      <c r="C158">
+        <v>910417</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
       </c>
-      <c r="C159" t="s">
-        <v>139</v>
+      <c r="C159">
+        <v>910417</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
       </c>
-      <c r="C160" t="s">
-        <v>22</v>
+      <c r="C160">
+        <v>910417</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C161" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
       </c>
-      <c r="C163" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
-      <c r="C164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165" t="s">
-        <v>10</v>
+      <c r="C165" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
       </c>
-      <c r="C166" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="C167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
-      <c r="C168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="C169" t="s">
-        <v>10</v>
+      <c r="C169" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
       </c>
-      <c r="C170" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
-      <c r="C171" t="s">
-        <v>10</v>
+      <c r="C171" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
       </c>
-      <c r="C172" t="s">
-        <v>252</v>
+      <c r="C172">
+        <v>910417</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
       </c>
-      <c r="C173" t="s">
-        <v>191</v>
+      <c r="C173">
+        <v>910417</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
       </c>
-      <c r="C174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
-      <c r="C175" t="s">
-        <v>10</v>
+      <c r="C175" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
       </c>
-      <c r="C176" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
-      <c r="C177" t="s">
-        <v>10</v>
+      <c r="C177" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
-      <c r="C179" t="s">
-        <v>10</v>
+      <c r="C179" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
         <v>4</v>
       </c>
-      <c r="C181" t="s">
-        <v>22</v>
+      <c r="C181">
+        <v>910417</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182" t="s">
-        <v>8</v>
+      <c r="C182">
+        <v>910417</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
       </c>
-      <c r="C183" t="s">
-        <v>265</v>
+      <c r="C183">
+        <v>910417</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
       </c>
-      <c r="C184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
-      <c r="C185" t="s">
-        <v>10</v>
+      <c r="C185" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
-      <c r="C187" t="s">
-        <v>10</v>
+      <c r="C187" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188" t="s">
-        <v>108</v>
+      <c r="C188">
+        <v>910417</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
         <v>4</v>
       </c>
-      <c r="C189" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
-      <c r="C190" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
-      <c r="C191" t="s">
-        <v>10</v>
+      <c r="C191" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192" t="s">
-        <v>252</v>
+      <c r="C192">
+        <v>910417</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
         <v>4</v>
       </c>
-      <c r="C193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
-      <c r="C194" t="s">
-        <v>10</v>
+      <c r="C194" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
       </c>
-      <c r="C195" t="s">
-        <v>279</v>
+      <c r="C195">
+        <v>910417</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
         <v>4</v>
       </c>
-      <c r="C196" t="s">
-        <v>67</v>
+      <c r="C196">
+        <v>910417</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
       </c>
-      <c r="C197" t="s">
-        <v>53</v>
+      <c r="C197">
+        <v>910417</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="B198" t="s">
         <v>4</v>
       </c>
-      <c r="C198" t="s">
-        <v>22</v>
+      <c r="C198">
+        <v>910417</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199" t="s">
-        <v>139</v>
+      <c r="C199">
+        <v>910417</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
       </c>
-      <c r="C200" t="s">
-        <v>285</v>
+      <c r="C200">
+        <v>910417</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
       </c>
-      <c r="C201" t="s">
-        <v>67</v>
+      <c r="C201">
+        <v>910417</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
       </c>
-      <c r="C202" t="s">
-        <v>67</v>
+      <c r="C202">
+        <v>910417</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
       </c>
-      <c r="C203" t="s">
-        <v>67</v>
+      <c r="C203">
+        <v>910417</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
       </c>
-      <c r="C204" t="s">
-        <v>67</v>
+      <c r="C204">
+        <v>910417</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
       </c>
-      <c r="C205" t="s">
-        <v>67</v>
+      <c r="C205">
+        <v>910417</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
         <v>4</v>
       </c>
-      <c r="C206" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
-      <c r="C207" t="s">
-        <v>10</v>
+      <c r="C207" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
       </c>
-      <c r="C208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="C209" t="s">
-        <v>10</v>
+      <c r="C209" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="B210" t="s">
         <v>4</v>
       </c>
-      <c r="C210" t="s">
-        <v>298</v>
+      <c r="C210">
+        <v>910417</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
       </c>
-      <c r="C211" t="s">
-        <v>67</v>
+      <c r="C211">
+        <v>910417</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
       </c>
-      <c r="C212" t="s">
-        <v>67</v>
+      <c r="C212">
+        <v>910417</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
       </c>
-      <c r="C213" t="s">
-        <v>67</v>
+      <c r="C213">
+        <v>910417</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C214" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
       </c>
-      <c r="C215" t="s">
-        <v>147</v>
+      <c r="C215">
+        <v>910417</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
       </c>
-      <c r="C216" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>910417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
-      <c r="C217" t="s">
-        <v>10</v>
+      <c r="C217" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
       </c>
-      <c r="C218" t="s">
-        <v>67</v>
+      <c r="C218">
+        <v>910417</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
       </c>
-      <c r="C219" t="s">
-        <v>308</v>
+      <c r="C219">
+        <v>910417</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
       </c>
-      <c r="C220" t="s">
-        <v>104</v>
+      <c r="C220">
+        <v>910417</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
       </c>
-      <c r="C221" t="s">
-        <v>169</v>
+      <c r="C221">
+        <v>910417</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
       </c>
-      <c r="C222" t="s">
-        <v>67</v>
+      <c r="C222">
+        <v>910417</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
       </c>
-      <c r="C223" t="s">
-        <v>121</v>
+      <c r="C223">
+        <v>910417</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
       </c>
-      <c r="C225" t="s">
-        <v>315</v>
+      <c r="C225">
+        <v>910417</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
       </c>
-      <c r="C226" t="s">
-        <v>317</v>
+      <c r="C226">
+        <v>910417</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
